--- a/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.33852263214045586, 0.2404927462155008, 0.359046808988458, 0.23394170318712887, 0.24314402051240827, 0.390243582803775, 0.44997256760421533, 0.30320666092308496, 0.23828761067604057, 0.21258249725642994, 0.2919246191822665, 0.25781010706010127, 0.3358444684246943, 0.45853550221705297, 0.2904081765684354, 0.1727121050159306, 0.27171992978770526, 0.21050918218148212, 0.21889085079828266]</t>
+    <t>[0.9999999999999999, 0.3997991326778741, 0.1429103721719559, 0.0974873311610669, 0.08621518452083317, 0.16070029683432624, 0.26167602599698364, 0.2258810318067539, 0.16812639347177927, 0.10719200812474186, 0.06627767242589713, 0.0951537806060099, 0.1355668304722252, 0.17375006650385535, 0.24847442936540187, 0.1930895706587592, 0.12456878908065268, 0.11576667881684702, 0.05977547418034912, 0.06984261773849555]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.34455119405311185, 0.24523926409817196, 0.3542710037954998, 0.23255401732804715, 0.24330078992097753, 0.3903375579713773, 0.4491816443403333, 0.3006175022251547, 0.23866163314023192, 0.2127588019306442, 0.2892005604967266, 0.25584119682246625, 0.3374641466445282, 0.45582917456726163, 0.29005969926464864, 0.1719881393727604, 0.26795743826021057, 0.2104805233905603, 0.21854800642370004]</t>
+    <t>[1.0, 0.4019127238948999, 0.14587175322265739, 0.09855777458335774, 0.08740943477965374, 0.16647003976941224, 0.2685426803566058, 0.22670836394892155, 0.16746595313670706, 0.10565915107925201, 0.07098596179930973, 0.09702325790797552, 0.1380695973666252, 0.17440484664114184, 0.248204836449194, 0.20003269406855798, 0.1301715032398129, 0.11933110191376471, 0.06411004567701609, 0.06968750467004141]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.07530000000000001</v>
+        <v>0.0151</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.073738816579158E-05</v>
+        <v>4.896473920455704E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.1778328684023455</v>
+        <v>-0.524192538636706</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0005129375551605749</v>
+        <v>6.065929019144551E-05</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9371428571428572</v>
+        <v>1.052580331061344</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0002970699866598019</v>
+        <v>-0.0005379101107449344</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.1113181081106236</v>
+        <v>-0.6261225404145367</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.0003362315748443182</v>
+        <v>5.323110591756335E-05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.0001355743606702231</v>
+        <v>0.000748671109656337</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2296264447114579</v>
+        <v>-0.7262946049081308</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0006787052262319841</v>
+        <v>6.80687399581896E-05</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.3997991326778741, 0.1429103721719559, 0.0974873311610669, 0.08621518452083317, 0.16070029683432624, 0.26167602599698364, 0.2258810318067539, 0.16812639347177927, 0.10719200812474186, 0.06627767242589713, 0.0951537806060099, 0.1355668304722252, 0.17375006650385535, 0.24847442936540187, 0.1930895706587592, 0.12456878908065268, 0.11576667881684702, 0.05977547418034912, 0.06984261773849555]</t>
+    <t>[1.0, 0.3790505108795826, 0.10238248349888494, 0.06095005776014869, 0.044876411349089866, 0.11102549319195869, 0.23375494970670493, 0.2264577542095719, 0.16140099259296792, 0.07905269681729955, 0.03618288716593927, 0.06379614621482893, 0.106193929007722, 0.164932847105379, 0.2525634872153579, 0.16536309393517315, 0.08827020983174376, 0.08035430204502515, 0.031008504069174835, 0.05090244555640475]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.4019127238948999, 0.14587175322265739, 0.09855777458335774, 0.08740943477965374, 0.16647003976941224, 0.2685426803566058, 0.22670836394892155, 0.16746595313670706, 0.10565915107925201, 0.07098596179930973, 0.09702325790797552, 0.1380695973666252, 0.17440484664114184, 0.248204836449194, 0.20003269406855798, 0.1301715032398129, 0.11933110191376471, 0.06411004567701609, 0.06968750467004141]</t>
+    <t>[0.9999999999999999, 0.3769032131227132, 0.10224003843844251, 0.062203168860321185, 0.04538758058659501, 0.11167710243460031, 0.23244550625748983, 0.2238596332702955, 0.16059620201950528, 0.08006050973051392, 0.036531475387284906, 0.06548908407272853, 0.10740974719202151, 0.1647434492670268, 0.25163405937453365, 0.16530704470576568, 0.09047938040215253, 0.08166493165024083, 0.031701420939380345, 0.05217000868750588]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4.896473920455704E-06</v>
+        <v>-1.693170508085783E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.524192538636706</v>
+        <v>-0.0008734629885968446</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.065929019144551E-05</v>
+        <v>6.243000414055855E-05</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.0005379101107449344</v>
+        <v>0.0001993837778804715</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.6261225404145367</v>
+        <v>-0.0006658084180944305</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>5.323110591756335E-05</v>
+        <v>5.495993789750699E-05</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.000748671109656337</v>
+        <v>-0.0006187327431428757</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.7262946049081308</v>
+        <v>0.0003114010344690967</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>6.80687399581896E-05</v>
+        <v>7.026596836940234E-05</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.30060261520508214, 0.19852396421254068, 0.3241603433801811, 0.18177083334496058, 0.19548894444716008, 0.3675668346576716, 0.44035559729978935, 0.2797485056412399, 0.20690894738778062, 0.17447847925689827, 0.2558476599956347, 0.22771462146700586, 0.3220833664357271, 0.45196836524820405, 0.2747323233835494, 0.15281098559092485, 0.24607466094607644, 0.17199874817002872, 0.1912911440804786]</t>
+    <t>[0.9999999999999999, 0.33852263214045586, 0.2404927462155008, 0.359046808988458, 0.23394170318712887, 0.24314402051240827, 0.390243582803775, 0.44997256760421533, 0.30320666092308496, 0.23828761067604057, 0.21258249725642994, 0.2919246191822665, 0.25781010706010127, 0.3358444684246943, 0.45853550221705297, 0.2904081765684354, 0.1727121050159306, 0.27171992978770526, 0.21050918218148212, 0.21889085079828266]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2984621572108666, 0.1970656521755952, 0.3237120679148019, 0.18038967838051426, 0.19472739134877293, 0.3668478758285709, 0.4390867634914027, 0.2800494275825757, 0.20643792199194563, 0.17286905323190013, 0.2550493927095553, 0.2266710020971092, 0.32077921315634816, 0.45120989086607943, 0.2733612909523933, 0.15256309155880643, 0.24636995040661605, 0.1708248730593661, 0.19138728375560787]</t>
+    <t>[1.0, 0.34455119405311185, 0.24523926409817196, 0.3542710037954998, 0.23255401732804715, 0.24330078992097753, 0.3903375579713773, 0.4491816443403333, 0.3006175022251547, 0.23866163314023192, 0.2127588019306442, 0.2892005604967266, 0.25584119682246625, 0.3374641466445282, 0.45582917456726163, 0.29005969926464864, 0.1719881393727604, 0.26795743826021057, 0.2104805233905603, 0.21854800642370004]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-6.931625354456378E-06</v>
+        <v>3.073738816579158E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.001503837061607164</v>
+        <v>-0.1778328684023455</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0005152330020180488</v>
+        <v>0.0005129375551605749</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.001021554062362662</v>
+        <v>0.0002970699866598019</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.003823129047464828</v>
+        <v>-0.1113181081106236</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.0003359756240327436</v>
+        <v>0.0003362315748443182</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.0007550174359900088</v>
+        <v>0.0001355743606702231</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.0005260559884976289</v>
+        <v>-0.2296264447114579</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0006831708823931043</v>
+        <v>0.0006787052262319841</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/tin-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.33852263214045586, 0.2404927462155008, 0.359046808988458, 0.23394170318712887, 0.24314402051240827, 0.390243582803775, 0.44997256760421533, 0.30320666092308496, 0.23828761067604057, 0.21258249725642994, 0.2919246191822665, 0.25781010706010127, 0.3358444684246943, 0.45853550221705297, 0.2904081765684354, 0.1727121050159306, 0.27171992978770526, 0.21050918218148212, 0.21889085079828266]</t>
+    <t>[1.0, 0.3385226321404556, 0.24049274621550046, 0.35904680898845787, 0.2339417031871288, 0.2431440205124083, 0.39024358280377536, 0.4499725676042152, 0.3032066609230848, 0.2382876106760406, 0.21258249725643, 0.2919246191822663, 0.2578101070601013, 0.33584446842469406, 0.4585355022170534, 0.2904081765684356, 0.17271210501593068, 0.27171992978770554, 0.21050918218148196, 0.218890850798283]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.34455119405311185, 0.24523926409817196, 0.3542710037954998, 0.23255401732804715, 0.24330078992097753, 0.3903375579713773, 0.4491816443403333, 0.3006175022251547, 0.23866163314023192, 0.2127588019306442, 0.2892005604967266, 0.25584119682246625, 0.3374641466445282, 0.45582917456726163, 0.29005969926464864, 0.1719881393727604, 0.26795743826021057, 0.2104805233905603, 0.21854800642370004]</t>
+    <t>[1.0, 0.34455119405311213, 0.24523926409817193, 0.3542710037954999, 0.23255401732804742, 0.24330078992097764, 0.39033755797137754, 0.449181644340333, 0.30061750222515443, 0.23866163314023164, 0.21275880193064434, 0.2892005604967261, 0.2558411968224658, 0.3374641466445275, 0.45582917456726224, 0.2900596992646488, 0.17198813937276033, 0.26795743826021046, 0.2104805233905605, 0.21854800642369993]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.073738816579158E-05</v>
+        <v>3.073738816579142E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0005129375551605749</v>
+        <v>0.0005129375551605752</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9371428571428572</v>
+        <v>0.4837758112094395</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0002970699866598019</v>
+        <v>0.000297069986659802</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.0003362315748443182</v>
+        <v>0.0003362315748443183</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.0001355743606702231</v>
+        <v>0.0001355743606702226</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0006787052262319841</v>
+        <v>0.0006787052262319843</v>
       </c>
     </row>
     <row r="10" spans="1:2">
